--- a/Code/Results/Cases/Case_1_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9750620068616644</v>
+        <v>1.011267060624746</v>
       </c>
       <c r="D2">
-        <v>1.034949625966624</v>
+        <v>1.040897159324743</v>
       </c>
       <c r="E2">
-        <v>0.9849669998444361</v>
+        <v>1.013467924374028</v>
       </c>
       <c r="F2">
-        <v>1.02462384441072</v>
+        <v>1.042723146085332</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054257184943687</v>
+        <v>1.035189460091314</v>
       </c>
       <c r="J2">
-        <v>0.9980150824712557</v>
+        <v>1.016516520928296</v>
       </c>
       <c r="K2">
-        <v>1.045942618061706</v>
+        <v>1.043678206412957</v>
       </c>
       <c r="L2">
-        <v>0.9966398187386029</v>
+        <v>1.01632898695471</v>
       </c>
       <c r="M2">
-        <v>1.035750466324751</v>
+        <v>1.045499028740368</v>
       </c>
       <c r="N2">
-        <v>1.003393270110181</v>
+        <v>1.009642935836688</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9794189837146829</v>
+        <v>1.012187912163178</v>
       </c>
       <c r="D3">
-        <v>1.038217692381273</v>
+        <v>1.041515364982076</v>
       </c>
       <c r="E3">
-        <v>0.9884038457364667</v>
+        <v>1.014247300626775</v>
       </c>
       <c r="F3">
-        <v>1.028785399080612</v>
+        <v>1.043570948546279</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055428730812094</v>
+        <v>1.035308032181936</v>
       </c>
       <c r="J3">
-        <v>1.000486877745407</v>
+        <v>1.017070705920199</v>
       </c>
       <c r="K3">
-        <v>1.048383852428534</v>
+        <v>1.044107434926798</v>
       </c>
       <c r="L3">
-        <v>0.9991872837332304</v>
+        <v>1.016913169610881</v>
       </c>
       <c r="M3">
-        <v>1.039062751042837</v>
+        <v>1.046157624116618</v>
       </c>
       <c r="N3">
-        <v>1.004227548025626</v>
+        <v>1.009828002616436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9821812195871366</v>
+        <v>1.012784202276114</v>
       </c>
       <c r="D4">
-        <v>1.040274536703404</v>
+        <v>1.041913132728877</v>
       </c>
       <c r="E4">
-        <v>0.9905893663407719</v>
+        <v>1.014752391356762</v>
       </c>
       <c r="F4">
-        <v>1.031411661952339</v>
+        <v>1.044117744335275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056148817568552</v>
+        <v>1.035381933978818</v>
       </c>
       <c r="J4">
-        <v>1.002051981800919</v>
+        <v>1.017429160808853</v>
       </c>
       <c r="K4">
-        <v>1.049910018665784</v>
+        <v>1.044382235122282</v>
       </c>
       <c r="L4">
-        <v>1.000802712239112</v>
+        <v>1.017291303924076</v>
       </c>
       <c r="M4">
-        <v>1.041145199686264</v>
+        <v>1.0465813519545</v>
       </c>
       <c r="N4">
-        <v>1.00475550258298</v>
+        <v>1.009947644391614</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.983329298689359</v>
+        <v>1.01303498636883</v>
       </c>
       <c r="D5">
-        <v>1.041125709695704</v>
+        <v>1.042079812506646</v>
       </c>
       <c r="E5">
-        <v>0.9914992866689423</v>
+        <v>1.014964917326041</v>
       </c>
       <c r="F5">
-        <v>1.032500231677618</v>
+        <v>1.044347186501278</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056442592177683</v>
+        <v>1.035412325264072</v>
       </c>
       <c r="J5">
-        <v>1.002701988100583</v>
+        <v>1.017579820734225</v>
       </c>
       <c r="K5">
-        <v>1.050539073498849</v>
+        <v>1.044497055195688</v>
       </c>
       <c r="L5">
-        <v>1.001474195814529</v>
+        <v>1.017450301392447</v>
       </c>
       <c r="M5">
-        <v>1.042006438575055</v>
+        <v>1.046758903578535</v>
       </c>
       <c r="N5">
-        <v>1.004974693687394</v>
+        <v>1.009997915361388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9835213078955345</v>
+        <v>1.013077100174195</v>
       </c>
       <c r="D6">
-        <v>1.041267841184219</v>
+        <v>1.042107766930905</v>
       </c>
       <c r="E6">
-        <v>0.9916515546918802</v>
+        <v>1.015000612226713</v>
       </c>
       <c r="F6">
-        <v>1.032682109506293</v>
+        <v>1.044385685516441</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056491397396943</v>
+        <v>1.035417388352756</v>
       </c>
       <c r="J6">
-        <v>1.002810667103369</v>
+        <v>1.017605115144946</v>
       </c>
       <c r="K6">
-        <v>1.050643966091552</v>
+        <v>1.044516292529163</v>
       </c>
       <c r="L6">
-        <v>1.001586499627157</v>
+        <v>1.017476999482659</v>
       </c>
       <c r="M6">
-        <v>1.042150219845192</v>
+        <v>1.046788680985669</v>
       </c>
       <c r="N6">
-        <v>1.005011337264026</v>
+        <v>1.010006354517187</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9821966113795775</v>
+        <v>1.012787552859157</v>
       </c>
       <c r="D7">
-        <v>1.040285962852549</v>
+        <v>1.04191536204433</v>
       </c>
       <c r="E7">
-        <v>0.9906015592058571</v>
+        <v>1.01475523041081</v>
       </c>
       <c r="F7">
-        <v>1.031426267882902</v>
+        <v>1.04412081184866</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056152777982065</v>
+        <v>1.035382342730727</v>
       </c>
       <c r="J7">
-        <v>1.002060698184067</v>
+        <v>1.017431174071062</v>
       </c>
       <c r="K7">
-        <v>1.049918473091753</v>
+        <v>1.044383772130488</v>
       </c>
       <c r="L7">
-        <v>1.00081171434807</v>
+        <v>1.017293428340322</v>
       </c>
       <c r="M7">
-        <v>1.041156763051626</v>
+        <v>1.046583726704177</v>
       </c>
       <c r="N7">
-        <v>1.004758442167181</v>
+        <v>1.009948316219123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9765465742499555</v>
+        <v>1.011578175488351</v>
       </c>
       <c r="D8">
-        <v>1.036066250880233</v>
+        <v>1.041106549761852</v>
       </c>
       <c r="E8">
-        <v>0.9861366286568449</v>
+        <v>1.013731155415298</v>
       </c>
       <c r="F8">
-        <v>1.026044298541566</v>
+        <v>1.04301003386746</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054661067702723</v>
+        <v>1.035230115638594</v>
       </c>
       <c r="J8">
-        <v>0.9988576972351438</v>
+        <v>1.016703838683976</v>
       </c>
       <c r="K8">
-        <v>1.046778876445978</v>
+        <v>1.04382387347728</v>
       </c>
       <c r="L8">
-        <v>0.9975077214741443</v>
+        <v>1.016526386835833</v>
       </c>
       <c r="M8">
-        <v>1.036882671445743</v>
+        <v>1.045722105293099</v>
       </c>
       <c r="N8">
-        <v>1.003677729129258</v>
+        <v>1.009705502320287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.966130648632282</v>
+        <v>1.009450494622893</v>
       </c>
       <c r="D9">
-        <v>1.028172674368171</v>
+        <v>1.03966417436083</v>
       </c>
       <c r="E9">
-        <v>0.9779605158777979</v>
+        <v>1.011932657729253</v>
       </c>
       <c r="F9">
-        <v>1.016030945131744</v>
+        <v>1.041039105631031</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051734688565112</v>
+        <v>1.034940315948077</v>
       </c>
       <c r="J9">
-        <v>0.9929388468012332</v>
+        <v>1.015421154602985</v>
       </c>
       <c r="K9">
-        <v>1.040824627345744</v>
+        <v>1.042814845279282</v>
       </c>
       <c r="L9">
-        <v>0.9914215844163153</v>
+        <v>1.015175798308388</v>
       </c>
       <c r="M9">
-        <v>1.028869177600138</v>
+        <v>1.044185332349406</v>
       </c>
       <c r="N9">
-        <v>1.00167844776701</v>
+        <v>1.009276816700478</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9588430299370161</v>
+        <v>1.008034383486343</v>
       </c>
       <c r="D10">
-        <v>1.022579812781213</v>
+        <v>1.038691205394766</v>
       </c>
       <c r="E10">
-        <v>0.9722807362294047</v>
+        <v>1.010737812775054</v>
       </c>
       <c r="F10">
-        <v>1.008969398139656</v>
+        <v>1.03971615272959</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049573151637315</v>
+        <v>1.034732700684175</v>
       </c>
       <c r="J10">
-        <v>0.9887903969427994</v>
+        <v>1.014565401388698</v>
       </c>
       <c r="K10">
-        <v>1.036553008235353</v>
+        <v>1.042127216085648</v>
       </c>
       <c r="L10">
-        <v>0.9871691798835676</v>
+        <v>1.014276166734804</v>
       </c>
       <c r="M10">
-        <v>1.023178573999111</v>
+        <v>1.043148526260373</v>
       </c>
       <c r="N10">
-        <v>1.000275886234812</v>
+        <v>1.008990499629935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9555975202834663</v>
+        <v>1.007421759311603</v>
       </c>
       <c r="D11">
-        <v>1.02007416443778</v>
+        <v>1.038267227520106</v>
       </c>
       <c r="E11">
-        <v>0.969761756118644</v>
+        <v>1.010221434214447</v>
       </c>
       <c r="F11">
-        <v>1.005812864692667</v>
+        <v>1.039141193051929</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048584678494493</v>
+        <v>1.034639397565506</v>
       </c>
       <c r="J11">
-        <v>0.9869417086880576</v>
+        <v>1.014194713444786</v>
       </c>
       <c r="K11">
-        <v>1.034627187278577</v>
+        <v>1.041825946385221</v>
       </c>
       <c r="L11">
-        <v>0.985277375260734</v>
+        <v>1.013886809935324</v>
       </c>
       <c r="M11">
-        <v>1.020625985209607</v>
+        <v>1.042696690610843</v>
       </c>
       <c r="N11">
-        <v>0.999650600913196</v>
+        <v>1.008866400855336</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9543777108088215</v>
+        <v>1.007194288642084</v>
       </c>
       <c r="D12">
-        <v>1.019130343533649</v>
+        <v>1.038109343464763</v>
       </c>
       <c r="E12">
-        <v>0.9688166587921397</v>
+        <v>1.010029779416815</v>
       </c>
       <c r="F12">
-        <v>1.004624869682951</v>
+        <v>1.03892731224644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048209389737736</v>
+        <v>1.034604230361081</v>
       </c>
       <c r="J12">
-        <v>0.9862467555378517</v>
+        <v>1.014057003174901</v>
       </c>
       <c r="K12">
-        <v>1.033899990076659</v>
+        <v>1.041713514278104</v>
       </c>
       <c r="L12">
-        <v>0.9845667015552763</v>
+        <v>1.013742215000496</v>
       </c>
       <c r="M12">
-        <v>1.019663997654804</v>
+        <v>1.042528426426434</v>
       </c>
       <c r="N12">
-        <v>0.9994155112688402</v>
+        <v>1.008820287134314</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9546400234280862</v>
+        <v>1.00724307800181</v>
       </c>
       <c r="D13">
-        <v>1.019333398159767</v>
+        <v>1.038143228186845</v>
       </c>
       <c r="E13">
-        <v>0.9690198204769509</v>
+        <v>1.010070883157752</v>
       </c>
       <c r="F13">
-        <v>1.004880412119505</v>
+        <v>1.038973204633383</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048290262142756</v>
+        <v>1.034611796917826</v>
       </c>
       <c r="J13">
-        <v>0.9863962061972985</v>
+        <v>1.014086543397093</v>
       </c>
       <c r="K13">
-        <v>1.034056520110691</v>
+        <v>1.041737655169085</v>
       </c>
       <c r="L13">
-        <v>0.984719510818353</v>
+        <v>1.013773229752692</v>
       </c>
       <c r="M13">
-        <v>1.019870982794945</v>
+        <v>1.042564539193859</v>
       </c>
       <c r="N13">
-        <v>0.9994660691109092</v>
+        <v>1.008830179488789</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9554969864806342</v>
+        <v>1.00740295477133</v>
       </c>
       <c r="D14">
-        <v>1.019996418429451</v>
+        <v>1.03825418491782</v>
       </c>
       <c r="E14">
-        <v>0.9696838294731333</v>
+        <v>1.0102055888769</v>
       </c>
       <c r="F14">
-        <v>1.005714985248558</v>
+        <v>1.039123520015008</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048553824199729</v>
+        <v>1.034636501036016</v>
       </c>
       <c r="J14">
-        <v>0.9868844347111236</v>
+        <v>1.014183330678834</v>
       </c>
       <c r="K14">
-        <v>1.034567321413094</v>
+        <v>1.041816663454142</v>
       </c>
       <c r="L14">
-        <v>0.9852187957437538</v>
+        <v>1.01387485706484</v>
       </c>
       <c r="M14">
-        <v>1.020546752676245</v>
+        <v>1.04268279064751</v>
       </c>
       <c r="N14">
-        <v>0.9996312268713319</v>
+        <v>1.008862589444084</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9560230730469054</v>
+        <v>1.007501471445737</v>
       </c>
       <c r="D15">
-        <v>1.020403173962255</v>
+        <v>1.038322496110932</v>
       </c>
       <c r="E15">
-        <v>0.9700916820011113</v>
+        <v>1.010288605591673</v>
       </c>
       <c r="F15">
-        <v>1.006227116225112</v>
+        <v>1.039216092582402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048715129375529</v>
+        <v>1.034651654477777</v>
       </c>
       <c r="J15">
-        <v>0.9871841404329988</v>
+        <v>1.014242961860632</v>
       </c>
       <c r="K15">
-        <v>1.034880458240508</v>
+        <v>1.041865273275066</v>
       </c>
       <c r="L15">
-        <v>0.9855253530590855</v>
+        <v>1.01393747694792</v>
       </c>
       <c r="M15">
-        <v>1.020961265651241</v>
+        <v>1.042755592049688</v>
       </c>
       <c r="N15">
-        <v>0.9997326068148131</v>
+        <v>1.008882555924523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9590564644479856</v>
+        <v>1.008075053237709</v>
       </c>
       <c r="D16">
-        <v>1.022744294268021</v>
+        <v>1.038719287223152</v>
       </c>
       <c r="E16">
-        <v>0.9724466165784554</v>
+        <v>1.01077210424664</v>
       </c>
       <c r="F16">
-        <v>1.009176748454472</v>
+        <v>1.03975426659177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049637627165876</v>
+        <v>1.034738821281694</v>
       </c>
       <c r="J16">
-        <v>0.9889119513078227</v>
+        <v>1.014589999833488</v>
       </c>
       <c r="K16">
-        <v>1.036679178714192</v>
+        <v>1.042147136334182</v>
       </c>
       <c r="L16">
-        <v>0.9872936365163296</v>
+        <v>1.014302011146171</v>
       </c>
       <c r="M16">
-        <v>1.023346070384457</v>
+        <v>1.043178452362526</v>
       </c>
       <c r="N16">
-        <v>1.000316994803945</v>
+        <v>1.00899873312562</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9609346274789711</v>
+        <v>1.008434996850964</v>
       </c>
       <c r="D17">
-        <v>1.024190007615772</v>
+        <v>1.038967468979315</v>
       </c>
       <c r="E17">
-        <v>0.9739075185830305</v>
+        <v>1.011075658127952</v>
       </c>
       <c r="F17">
-        <v>1.011000055636956</v>
+        <v>1.040091284944366</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050202064820485</v>
+        <v>1.03479258812651</v>
       </c>
       <c r="J17">
-        <v>0.9899814647998552</v>
+        <v>1.014807650462859</v>
       </c>
       <c r="K17">
-        <v>1.037786787868178</v>
+        <v>1.042323000125855</v>
       </c>
       <c r="L17">
-        <v>0.9883890518042338</v>
+        <v>1.01453072531067</v>
       </c>
       <c r="M17">
-        <v>1.024817924341992</v>
+        <v>1.04344292878708</v>
       </c>
       <c r="N17">
-        <v>1.00067866571583</v>
+        <v>1.009071575713523</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9620215070202242</v>
+        <v>1.008644999967296</v>
       </c>
       <c r="D18">
-        <v>1.025025208392309</v>
+        <v>1.039111970867094</v>
       </c>
       <c r="E18">
-        <v>0.9747539219010865</v>
+        <v>1.011252812093672</v>
       </c>
       <c r="F18">
-        <v>1.012054071119471</v>
+        <v>1.040287658093716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050526241828353</v>
+        <v>1.034823620869615</v>
       </c>
       <c r="J18">
-        <v>0.9906002681520331</v>
+        <v>1.014934588710237</v>
       </c>
       <c r="K18">
-        <v>1.038425516754625</v>
+        <v>1.042425238575125</v>
       </c>
       <c r="L18">
-        <v>0.9890231455207323</v>
+        <v>1.01466414863902</v>
       </c>
       <c r="M18">
-        <v>1.025667929644944</v>
+        <v>1.043596914255089</v>
       </c>
       <c r="N18">
-        <v>1.000887898051296</v>
+        <v>1.009114051806782</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9623906651232311</v>
+        <v>1.008716614751333</v>
       </c>
       <c r="D19">
-        <v>1.025308638069924</v>
+        <v>1.039161198390617</v>
       </c>
       <c r="E19">
-        <v>0.9750415681149518</v>
+        <v>1.011313233280017</v>
       </c>
       <c r="F19">
-        <v>1.012411873257113</v>
+        <v>1.040354581602051</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050635928152713</v>
+        <v>1.034834146468999</v>
       </c>
       <c r="J19">
-        <v>0.9908104232834367</v>
+        <v>1.014977869022622</v>
       </c>
       <c r="K19">
-        <v>1.038642077224507</v>
+        <v>1.042460041526432</v>
       </c>
       <c r="L19">
-        <v>0.9892385449082933</v>
+        <v>1.014709645605992</v>
       </c>
       <c r="M19">
-        <v>1.025956333245122</v>
+        <v>1.043649371904657</v>
       </c>
       <c r="N19">
-        <v>1.000958952261896</v>
+        <v>1.009128533051995</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9607340154980168</v>
+        <v>1.008396372705717</v>
       </c>
       <c r="D20">
-        <v>1.024035733420771</v>
+        <v>1.0389408681298</v>
       </c>
       <c r="E20">
-        <v>0.9737513722469301</v>
+        <v>1.011043079716915</v>
       </c>
       <c r="F20">
-        <v>1.010805418183497</v>
+        <v>1.040055147144596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050142029993322</v>
+        <v>1.034786853427409</v>
       </c>
       <c r="J20">
-        <v>0.9898672387521278</v>
+        <v>1.014784300018508</v>
       </c>
       <c r="K20">
-        <v>1.037668712026958</v>
+        <v>1.042304166750947</v>
       </c>
       <c r="L20">
-        <v>0.9882720278166485</v>
+        <v>1.014506184552686</v>
       </c>
       <c r="M20">
-        <v>1.024660891571186</v>
+        <v>1.043414581828345</v>
       </c>
       <c r="N20">
-        <v>1.000640041111792</v>
+        <v>1.009063761606582</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9552450329807265</v>
+        <v>1.007355872687672</v>
       </c>
       <c r="D21">
-        <v>1.019801541669489</v>
+        <v>1.038221521944703</v>
       </c>
       <c r="E21">
-        <v>0.9694885598894007</v>
+        <v>1.010165917215427</v>
       </c>
       <c r="F21">
-        <v>1.005469658241221</v>
+        <v>1.039079264564919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04847643803913</v>
+        <v>1.034629240365505</v>
       </c>
       <c r="J21">
-        <v>0.9867408951601946</v>
+        <v>1.014154829788517</v>
       </c>
       <c r="K21">
-        <v>1.034417234087685</v>
+        <v>1.041793412019058</v>
       </c>
       <c r="L21">
-        <v>0.9850719921335374</v>
+        <v>1.013844929531361</v>
       </c>
       <c r="M21">
-        <v>1.020348141963857</v>
+        <v>1.042647980458461</v>
       </c>
       <c r="N21">
-        <v>0.9995826712751936</v>
+        <v>1.008853046011609</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9517108321769334</v>
+        <v>1.006702162563616</v>
       </c>
       <c r="D22">
-        <v>1.017063201259862</v>
+        <v>1.037766928427044</v>
       </c>
       <c r="E22">
-        <v>0.9667535037766812</v>
+        <v>1.009615285759563</v>
       </c>
       <c r="F22">
-        <v>1.002024706160132</v>
+        <v>1.038463865959604</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04738207109666</v>
+        <v>1.034527191072961</v>
       </c>
       <c r="J22">
-        <v>0.9847271844496333</v>
+        <v>1.013758940100667</v>
       </c>
       <c r="K22">
-        <v>1.032304045692044</v>
+        <v>1.041469231402491</v>
       </c>
       <c r="L22">
-        <v>0.9830136594587902</v>
+        <v>1.013429343533801</v>
       </c>
       <c r="M22">
-        <v>1.017556159650373</v>
+        <v>1.04216348759418</v>
       </c>
       <c r="N22">
-        <v>0.998901410498287</v>
+        <v>1.008720457303625</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9535925249400026</v>
+        <v>1.007048659588376</v>
       </c>
       <c r="D23">
-        <v>1.018522242443765</v>
+        <v>1.038008135472702</v>
       </c>
       <c r="E23">
-        <v>0.9682087782875582</v>
+        <v>1.009907102475263</v>
       </c>
       <c r="F23">
-        <v>1.003859721192489</v>
+        <v>1.038790272440601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047966767780387</v>
+        <v>1.034581568730473</v>
       </c>
       <c r="J23">
-        <v>0.9857993860680554</v>
+        <v>1.01396881946963</v>
       </c>
       <c r="K23">
-        <v>1.033430960269151</v>
+        <v>1.041641374028942</v>
       </c>
       <c r="L23">
-        <v>0.9841093502632857</v>
+        <v>1.013649636956625</v>
       </c>
       <c r="M23">
-        <v>1.019044053491416</v>
+        <v>1.042420562707833</v>
       </c>
       <c r="N23">
-        <v>0.9992641654210669</v>
+        <v>1.008790754773527</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9608246900025589</v>
+        <v>1.008413825127269</v>
       </c>
       <c r="D24">
-        <v>1.024105468157943</v>
+        <v>1.038952888706978</v>
       </c>
       <c r="E24">
-        <v>0.9738219456846364</v>
+        <v>1.011057800201662</v>
       </c>
       <c r="F24">
-        <v>1.010893395745099</v>
+        <v>1.040071476891016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050169172736008</v>
+        <v>1.034789445706286</v>
       </c>
       <c r="J24">
-        <v>0.9899188680884845</v>
+        <v>1.014794851121534</v>
       </c>
       <c r="K24">
-        <v>1.037722088010216</v>
+        <v>1.042312677792777</v>
       </c>
       <c r="L24">
-        <v>0.9883249208590627</v>
+        <v>1.014517273408636</v>
       </c>
       <c r="M24">
-        <v>1.02473187415576</v>
+        <v>1.043427391461423</v>
       </c>
       <c r="N24">
-        <v>1.000657499226488</v>
+        <v>1.009067292501504</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9688813195309661</v>
+        <v>1.010000142510728</v>
       </c>
       <c r="D25">
-        <v>1.030269851390945</v>
+        <v>1.040039079932728</v>
       </c>
       <c r="E25">
-        <v>0.9801129296000791</v>
+        <v>1.012396886501438</v>
       </c>
       <c r="F25">
-        <v>1.018685355251108</v>
+        <v>1.04155023435521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052527541724755</v>
+        <v>1.035017782516342</v>
       </c>
       <c r="J25">
-        <v>0.994503334171584</v>
+        <v>1.015752874638931</v>
       </c>
       <c r="K25">
-        <v>1.042415761088626</v>
+        <v>1.04307834631716</v>
       </c>
       <c r="L25">
-        <v>0.9930280166207998</v>
+        <v>1.015524828371555</v>
       </c>
       <c r="M25">
-        <v>1.031000368135845</v>
+        <v>1.044584801269465</v>
       </c>
       <c r="N25">
-        <v>1.002207141284871</v>
+        <v>1.009387736660142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011267060624746</v>
+        <v>0.9750620068616643</v>
       </c>
       <c r="D2">
-        <v>1.040897159324743</v>
+        <v>1.034949625966625</v>
       </c>
       <c r="E2">
-        <v>1.013467924374028</v>
+        <v>0.9849669998444358</v>
       </c>
       <c r="F2">
-        <v>1.042723146085332</v>
+        <v>1.02462384441072</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035189460091314</v>
+        <v>1.054257184943687</v>
       </c>
       <c r="J2">
-        <v>1.016516520928296</v>
+        <v>0.9980150824712556</v>
       </c>
       <c r="K2">
-        <v>1.043678206412957</v>
+        <v>1.045942618061706</v>
       </c>
       <c r="L2">
-        <v>1.01632898695471</v>
+        <v>0.9966398187386026</v>
       </c>
       <c r="M2">
-        <v>1.045499028740368</v>
+        <v>1.035750466324752</v>
       </c>
       <c r="N2">
-        <v>1.009642935836688</v>
+        <v>1.003393270110181</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012187912163178</v>
+        <v>0.9794189837146833</v>
       </c>
       <c r="D3">
-        <v>1.041515364982076</v>
+        <v>1.038217692381274</v>
       </c>
       <c r="E3">
-        <v>1.014247300626775</v>
+        <v>0.9884038457364673</v>
       </c>
       <c r="F3">
-        <v>1.043570948546279</v>
+        <v>1.028785399080612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035308032181936</v>
+        <v>1.055428730812094</v>
       </c>
       <c r="J3">
-        <v>1.017070705920199</v>
+        <v>1.000486877745408</v>
       </c>
       <c r="K3">
-        <v>1.044107434926798</v>
+        <v>1.048383852428534</v>
       </c>
       <c r="L3">
-        <v>1.016913169610881</v>
+        <v>0.9991872837332308</v>
       </c>
       <c r="M3">
-        <v>1.046157624116618</v>
+        <v>1.039062751042837</v>
       </c>
       <c r="N3">
-        <v>1.009828002616436</v>
+        <v>1.004227548025626</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012784202276114</v>
+        <v>0.9821812195871364</v>
       </c>
       <c r="D4">
-        <v>1.041913132728877</v>
+        <v>1.040274536703404</v>
       </c>
       <c r="E4">
-        <v>1.014752391356762</v>
+        <v>0.9905893663407718</v>
       </c>
       <c r="F4">
-        <v>1.044117744335275</v>
+        <v>1.03141166195234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035381933978818</v>
+        <v>1.056148817568552</v>
       </c>
       <c r="J4">
-        <v>1.017429160808853</v>
+        <v>1.002051981800919</v>
       </c>
       <c r="K4">
-        <v>1.044382235122282</v>
+        <v>1.049910018665784</v>
       </c>
       <c r="L4">
-        <v>1.017291303924076</v>
+        <v>1.000802712239111</v>
       </c>
       <c r="M4">
-        <v>1.0465813519545</v>
+        <v>1.041145199686264</v>
       </c>
       <c r="N4">
-        <v>1.009947644391614</v>
+        <v>1.00475550258298</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01303498636883</v>
+        <v>0.983329298689359</v>
       </c>
       <c r="D5">
-        <v>1.042079812506646</v>
+        <v>1.041125709695704</v>
       </c>
       <c r="E5">
-        <v>1.014964917326041</v>
+        <v>0.991499286668942</v>
       </c>
       <c r="F5">
-        <v>1.044347186501278</v>
+        <v>1.032500231677618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035412325264072</v>
+        <v>1.056442592177683</v>
       </c>
       <c r="J5">
-        <v>1.017579820734225</v>
+        <v>1.002701988100583</v>
       </c>
       <c r="K5">
-        <v>1.044497055195688</v>
+        <v>1.05053907349885</v>
       </c>
       <c r="L5">
-        <v>1.017450301392447</v>
+        <v>1.001474195814529</v>
       </c>
       <c r="M5">
-        <v>1.046758903578535</v>
+        <v>1.042006438575055</v>
       </c>
       <c r="N5">
-        <v>1.009997915361388</v>
+        <v>1.004974693687394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013077100174195</v>
+        <v>0.9835213078955345</v>
       </c>
       <c r="D6">
-        <v>1.042107766930905</v>
+        <v>1.04126784118422</v>
       </c>
       <c r="E6">
-        <v>1.015000612226713</v>
+        <v>0.9916515546918798</v>
       </c>
       <c r="F6">
-        <v>1.044385685516441</v>
+        <v>1.032682109506293</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035417388352756</v>
+        <v>1.056491397396943</v>
       </c>
       <c r="J6">
-        <v>1.017605115144946</v>
+        <v>1.002810667103369</v>
       </c>
       <c r="K6">
-        <v>1.044516292529163</v>
+        <v>1.050643966091553</v>
       </c>
       <c r="L6">
-        <v>1.017476999482659</v>
+        <v>1.001586499627157</v>
       </c>
       <c r="M6">
-        <v>1.046788680985669</v>
+        <v>1.042150219845192</v>
       </c>
       <c r="N6">
-        <v>1.010006354517187</v>
+        <v>1.005011337264026</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012787552859157</v>
+        <v>0.9821966113795775</v>
       </c>
       <c r="D7">
-        <v>1.04191536204433</v>
+        <v>1.040285962852549</v>
       </c>
       <c r="E7">
-        <v>1.01475523041081</v>
+        <v>0.9906015592058569</v>
       </c>
       <c r="F7">
-        <v>1.04412081184866</v>
+        <v>1.031426267882902</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035382342730727</v>
+        <v>1.056152777982065</v>
       </c>
       <c r="J7">
-        <v>1.017431174071062</v>
+        <v>1.002060698184067</v>
       </c>
       <c r="K7">
-        <v>1.044383772130488</v>
+        <v>1.049918473091752</v>
       </c>
       <c r="L7">
-        <v>1.017293428340322</v>
+        <v>1.00081171434807</v>
       </c>
       <c r="M7">
-        <v>1.046583726704177</v>
+        <v>1.041156763051626</v>
       </c>
       <c r="N7">
-        <v>1.009948316219123</v>
+        <v>1.004758442167181</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011578175488351</v>
+        <v>0.9765465742499559</v>
       </c>
       <c r="D8">
-        <v>1.041106549761852</v>
+        <v>1.036066250880233</v>
       </c>
       <c r="E8">
-        <v>1.013731155415298</v>
+        <v>0.9861366286568451</v>
       </c>
       <c r="F8">
-        <v>1.04301003386746</v>
+        <v>1.026044298541567</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035230115638594</v>
+        <v>1.054661067702723</v>
       </c>
       <c r="J8">
-        <v>1.016703838683976</v>
+        <v>0.9988576972351443</v>
       </c>
       <c r="K8">
-        <v>1.04382387347728</v>
+        <v>1.046778876445978</v>
       </c>
       <c r="L8">
-        <v>1.016526386835833</v>
+        <v>0.9975077214741447</v>
       </c>
       <c r="M8">
-        <v>1.045722105293099</v>
+        <v>1.036882671445744</v>
       </c>
       <c r="N8">
-        <v>1.009705502320287</v>
+        <v>1.003677729129258</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009450494622893</v>
+        <v>0.9661306486322825</v>
       </c>
       <c r="D9">
-        <v>1.03966417436083</v>
+        <v>1.028172674368171</v>
       </c>
       <c r="E9">
-        <v>1.011932657729253</v>
+        <v>0.977960515877798</v>
       </c>
       <c r="F9">
-        <v>1.041039105631031</v>
+        <v>1.016030945131744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034940315948077</v>
+        <v>1.051734688565113</v>
       </c>
       <c r="J9">
-        <v>1.015421154602985</v>
+        <v>0.9929388468012336</v>
       </c>
       <c r="K9">
-        <v>1.042814845279282</v>
+        <v>1.040824627345744</v>
       </c>
       <c r="L9">
-        <v>1.015175798308388</v>
+        <v>0.9914215844163156</v>
       </c>
       <c r="M9">
-        <v>1.044185332349406</v>
+        <v>1.028869177600138</v>
       </c>
       <c r="N9">
-        <v>1.009276816700478</v>
+        <v>1.00167844776701</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008034383486343</v>
+        <v>0.9588430299370154</v>
       </c>
       <c r="D10">
-        <v>1.038691205394766</v>
+        <v>1.022579812781212</v>
       </c>
       <c r="E10">
-        <v>1.010737812775054</v>
+        <v>0.9722807362294038</v>
       </c>
       <c r="F10">
-        <v>1.03971615272959</v>
+        <v>1.008969398139655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034732700684175</v>
+        <v>1.049573151637314</v>
       </c>
       <c r="J10">
-        <v>1.014565401388698</v>
+        <v>0.9887903969427987</v>
       </c>
       <c r="K10">
-        <v>1.042127216085648</v>
+        <v>1.036553008235352</v>
       </c>
       <c r="L10">
-        <v>1.014276166734804</v>
+        <v>0.9871691798835669</v>
       </c>
       <c r="M10">
-        <v>1.043148526260373</v>
+        <v>1.02317857399911</v>
       </c>
       <c r="N10">
-        <v>1.008990499629935</v>
+        <v>1.000275886234811</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007421759311603</v>
+        <v>0.9555975202834665</v>
       </c>
       <c r="D11">
-        <v>1.038267227520106</v>
+        <v>1.02007416443778</v>
       </c>
       <c r="E11">
-        <v>1.010221434214447</v>
+        <v>0.9697617561186439</v>
       </c>
       <c r="F11">
-        <v>1.039141193051929</v>
+        <v>1.005812864692667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034639397565506</v>
+        <v>1.048584678494493</v>
       </c>
       <c r="J11">
-        <v>1.014194713444786</v>
+        <v>0.9869417086880579</v>
       </c>
       <c r="K11">
-        <v>1.041825946385221</v>
+        <v>1.034627187278577</v>
       </c>
       <c r="L11">
-        <v>1.013886809935324</v>
+        <v>0.9852773752607342</v>
       </c>
       <c r="M11">
-        <v>1.042696690610843</v>
+        <v>1.020625985209607</v>
       </c>
       <c r="N11">
-        <v>1.008866400855336</v>
+        <v>0.9996506009131961</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007194288642084</v>
+        <v>0.9543777108088219</v>
       </c>
       <c r="D12">
-        <v>1.038109343464763</v>
+        <v>1.019130343533649</v>
       </c>
       <c r="E12">
-        <v>1.010029779416815</v>
+        <v>0.9688166587921402</v>
       </c>
       <c r="F12">
-        <v>1.03892731224644</v>
+        <v>1.004624869682951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034604230361081</v>
+        <v>1.048209389737736</v>
       </c>
       <c r="J12">
-        <v>1.014057003174901</v>
+        <v>0.9862467555378521</v>
       </c>
       <c r="K12">
-        <v>1.041713514278104</v>
+        <v>1.033899990076659</v>
       </c>
       <c r="L12">
-        <v>1.013742215000496</v>
+        <v>0.9845667015552767</v>
       </c>
       <c r="M12">
-        <v>1.042528426426434</v>
+        <v>1.019663997654804</v>
       </c>
       <c r="N12">
-        <v>1.008820287134314</v>
+        <v>0.9994155112688404</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00724307800181</v>
+        <v>0.954640023428086</v>
       </c>
       <c r="D13">
-        <v>1.038143228186845</v>
+        <v>1.019333398159767</v>
       </c>
       <c r="E13">
-        <v>1.010070883157752</v>
+        <v>0.9690198204769505</v>
       </c>
       <c r="F13">
-        <v>1.038973204633383</v>
+        <v>1.004880412119505</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034611796917826</v>
+        <v>1.048290262142756</v>
       </c>
       <c r="J13">
-        <v>1.014086543397093</v>
+        <v>0.9863962061972983</v>
       </c>
       <c r="K13">
-        <v>1.041737655169085</v>
+        <v>1.034056520110692</v>
       </c>
       <c r="L13">
-        <v>1.013773229752692</v>
+        <v>0.9847195108183525</v>
       </c>
       <c r="M13">
-        <v>1.042564539193859</v>
+        <v>1.019870982794945</v>
       </c>
       <c r="N13">
-        <v>1.008830179488789</v>
+        <v>0.9994660691109094</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00740295477133</v>
+        <v>0.9554969864806339</v>
       </c>
       <c r="D14">
-        <v>1.03825418491782</v>
+        <v>1.019996418429451</v>
       </c>
       <c r="E14">
-        <v>1.0102055888769</v>
+        <v>0.9696838294731328</v>
       </c>
       <c r="F14">
-        <v>1.039123520015008</v>
+        <v>1.005714985248557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034636501036016</v>
+        <v>1.04855382419973</v>
       </c>
       <c r="J14">
-        <v>1.014183330678834</v>
+        <v>0.9868844347111234</v>
       </c>
       <c r="K14">
-        <v>1.041816663454142</v>
+        <v>1.034567321413094</v>
       </c>
       <c r="L14">
-        <v>1.01387485706484</v>
+        <v>0.9852187957437534</v>
       </c>
       <c r="M14">
-        <v>1.04268279064751</v>
+        <v>1.020546752676245</v>
       </c>
       <c r="N14">
-        <v>1.008862589444084</v>
+        <v>0.9996312268713317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007501471445737</v>
+        <v>0.9560230730469055</v>
       </c>
       <c r="D15">
-        <v>1.038322496110932</v>
+        <v>1.020403173962255</v>
       </c>
       <c r="E15">
-        <v>1.010288605591673</v>
+        <v>0.9700916820011112</v>
       </c>
       <c r="F15">
-        <v>1.039216092582402</v>
+        <v>1.006227116225113</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034651654477777</v>
+        <v>1.048715129375529</v>
       </c>
       <c r="J15">
-        <v>1.014242961860632</v>
+        <v>0.9871841404329988</v>
       </c>
       <c r="K15">
-        <v>1.041865273275066</v>
+        <v>1.034880458240508</v>
       </c>
       <c r="L15">
-        <v>1.01393747694792</v>
+        <v>0.9855253530590854</v>
       </c>
       <c r="M15">
-        <v>1.042755592049688</v>
+        <v>1.020961265651242</v>
       </c>
       <c r="N15">
-        <v>1.008882555924523</v>
+        <v>0.9997326068148131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008075053237709</v>
+        <v>0.9590564644479856</v>
       </c>
       <c r="D16">
-        <v>1.038719287223152</v>
+        <v>1.02274429426802</v>
       </c>
       <c r="E16">
-        <v>1.01077210424664</v>
+        <v>0.9724466165784554</v>
       </c>
       <c r="F16">
-        <v>1.03975426659177</v>
+        <v>1.009176748454472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034738821281694</v>
+        <v>1.049637627165876</v>
       </c>
       <c r="J16">
-        <v>1.014589999833488</v>
+        <v>0.9889119513078226</v>
       </c>
       <c r="K16">
-        <v>1.042147136334182</v>
+        <v>1.036679178714191</v>
       </c>
       <c r="L16">
-        <v>1.014302011146171</v>
+        <v>0.9872936365163295</v>
       </c>
       <c r="M16">
-        <v>1.043178452362526</v>
+        <v>1.023346070384456</v>
       </c>
       <c r="N16">
-        <v>1.00899873312562</v>
+        <v>1.000316994803945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008434996850964</v>
+        <v>0.9609346274789713</v>
       </c>
       <c r="D17">
-        <v>1.038967468979315</v>
+        <v>1.024190007615772</v>
       </c>
       <c r="E17">
-        <v>1.011075658127952</v>
+        <v>0.9739075185830307</v>
       </c>
       <c r="F17">
-        <v>1.040091284944366</v>
+        <v>1.011000055636956</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03479258812651</v>
+        <v>1.050202064820485</v>
       </c>
       <c r="J17">
-        <v>1.014807650462859</v>
+        <v>0.9899814647998554</v>
       </c>
       <c r="K17">
-        <v>1.042323000125855</v>
+        <v>1.037786787868178</v>
       </c>
       <c r="L17">
-        <v>1.01453072531067</v>
+        <v>0.988389051804234</v>
       </c>
       <c r="M17">
-        <v>1.04344292878708</v>
+        <v>1.024817924341992</v>
       </c>
       <c r="N17">
-        <v>1.009071575713523</v>
+        <v>1.00067866571583</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008644999967296</v>
+        <v>0.9620215070202238</v>
       </c>
       <c r="D18">
-        <v>1.039111970867094</v>
+        <v>1.025025208392309</v>
       </c>
       <c r="E18">
-        <v>1.011252812093672</v>
+        <v>0.9747539219010862</v>
       </c>
       <c r="F18">
-        <v>1.040287658093716</v>
+        <v>1.01205407111947</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034823620869615</v>
+        <v>1.050526241828353</v>
       </c>
       <c r="J18">
-        <v>1.014934588710237</v>
+        <v>0.9906002681520328</v>
       </c>
       <c r="K18">
-        <v>1.042425238575125</v>
+        <v>1.038425516754625</v>
       </c>
       <c r="L18">
-        <v>1.01466414863902</v>
+        <v>0.9890231455207322</v>
       </c>
       <c r="M18">
-        <v>1.043596914255089</v>
+        <v>1.025667929644944</v>
       </c>
       <c r="N18">
-        <v>1.009114051806782</v>
+        <v>1.000887898051296</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008716614751333</v>
+        <v>0.9623906651232318</v>
       </c>
       <c r="D19">
-        <v>1.039161198390617</v>
+        <v>1.025308638069924</v>
       </c>
       <c r="E19">
-        <v>1.011313233280017</v>
+        <v>0.9750415681149526</v>
       </c>
       <c r="F19">
-        <v>1.040354581602051</v>
+        <v>1.012411873257113</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034834146468999</v>
+        <v>1.050635928152713</v>
       </c>
       <c r="J19">
-        <v>1.014977869022622</v>
+        <v>0.9908104232834373</v>
       </c>
       <c r="K19">
-        <v>1.042460041526432</v>
+        <v>1.038642077224506</v>
       </c>
       <c r="L19">
-        <v>1.014709645605992</v>
+        <v>0.989238544908294</v>
       </c>
       <c r="M19">
-        <v>1.043649371904657</v>
+        <v>1.025956333245122</v>
       </c>
       <c r="N19">
-        <v>1.009128533051995</v>
+        <v>1.000958952261897</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008396372705717</v>
+        <v>0.9607340154980164</v>
       </c>
       <c r="D20">
-        <v>1.0389408681298</v>
+        <v>1.024035733420771</v>
       </c>
       <c r="E20">
-        <v>1.011043079716915</v>
+        <v>0.9737513722469292</v>
       </c>
       <c r="F20">
-        <v>1.040055147144596</v>
+        <v>1.010805418183497</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034786853427409</v>
+        <v>1.050142029993322</v>
       </c>
       <c r="J20">
-        <v>1.014784300018508</v>
+        <v>0.9898672387521272</v>
       </c>
       <c r="K20">
-        <v>1.042304166750947</v>
+        <v>1.037668712026958</v>
       </c>
       <c r="L20">
-        <v>1.014506184552686</v>
+        <v>0.9882720278166477</v>
       </c>
       <c r="M20">
-        <v>1.043414581828345</v>
+        <v>1.024660891571186</v>
       </c>
       <c r="N20">
-        <v>1.009063761606582</v>
+        <v>1.000640041111792</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007355872687672</v>
+        <v>0.9552450329807267</v>
       </c>
       <c r="D21">
-        <v>1.038221521944703</v>
+        <v>1.01980154166949</v>
       </c>
       <c r="E21">
-        <v>1.010165917215427</v>
+        <v>0.9694885598894007</v>
       </c>
       <c r="F21">
-        <v>1.039079264564919</v>
+        <v>1.005469658241221</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034629240365505</v>
+        <v>1.04847643803913</v>
       </c>
       <c r="J21">
-        <v>1.014154829788517</v>
+        <v>0.9867408951601947</v>
       </c>
       <c r="K21">
-        <v>1.041793412019058</v>
+        <v>1.034417234087685</v>
       </c>
       <c r="L21">
-        <v>1.013844929531361</v>
+        <v>0.9850719921335374</v>
       </c>
       <c r="M21">
-        <v>1.042647980458461</v>
+        <v>1.020348141963857</v>
       </c>
       <c r="N21">
-        <v>1.008853046011609</v>
+        <v>0.9995826712751936</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006702162563616</v>
+        <v>0.9517108321769336</v>
       </c>
       <c r="D22">
-        <v>1.037766928427044</v>
+        <v>1.017063201259863</v>
       </c>
       <c r="E22">
-        <v>1.009615285759563</v>
+        <v>0.9667535037766815</v>
       </c>
       <c r="F22">
-        <v>1.038463865959604</v>
+        <v>1.002024706160132</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034527191072961</v>
+        <v>1.047382071096661</v>
       </c>
       <c r="J22">
-        <v>1.013758940100667</v>
+        <v>0.9847271844496336</v>
       </c>
       <c r="K22">
-        <v>1.041469231402491</v>
+        <v>1.032304045692044</v>
       </c>
       <c r="L22">
-        <v>1.013429343533801</v>
+        <v>0.9830136594587904</v>
       </c>
       <c r="M22">
-        <v>1.04216348759418</v>
+        <v>1.017556159650373</v>
       </c>
       <c r="N22">
-        <v>1.008720457303625</v>
+        <v>0.9989014104982867</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007048659588376</v>
+        <v>0.9535925249400028</v>
       </c>
       <c r="D23">
-        <v>1.038008135472702</v>
+        <v>1.018522242443765</v>
       </c>
       <c r="E23">
-        <v>1.009907102475263</v>
+        <v>0.9682087782875585</v>
       </c>
       <c r="F23">
-        <v>1.038790272440601</v>
+        <v>1.003859721192489</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034581568730473</v>
+        <v>1.047966767780387</v>
       </c>
       <c r="J23">
-        <v>1.01396881946963</v>
+        <v>0.9857993860680557</v>
       </c>
       <c r="K23">
-        <v>1.041641374028942</v>
+        <v>1.033430960269151</v>
       </c>
       <c r="L23">
-        <v>1.013649636956625</v>
+        <v>0.9841093502632859</v>
       </c>
       <c r="M23">
-        <v>1.042420562707833</v>
+        <v>1.019044053491417</v>
       </c>
       <c r="N23">
-        <v>1.008790754773527</v>
+        <v>0.9992641654210669</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008413825127269</v>
+        <v>0.9608246900025593</v>
       </c>
       <c r="D24">
-        <v>1.038952888706978</v>
+        <v>1.024105468157943</v>
       </c>
       <c r="E24">
-        <v>1.011057800201662</v>
+        <v>0.9738219456846366</v>
       </c>
       <c r="F24">
-        <v>1.040071476891016</v>
+        <v>1.010893395745099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034789445706286</v>
+        <v>1.050169172736008</v>
       </c>
       <c r="J24">
-        <v>1.014794851121534</v>
+        <v>0.9899188680884847</v>
       </c>
       <c r="K24">
-        <v>1.042312677792777</v>
+        <v>1.037722088010216</v>
       </c>
       <c r="L24">
-        <v>1.014517273408636</v>
+        <v>0.9883249208590629</v>
       </c>
       <c r="M24">
-        <v>1.043427391461423</v>
+        <v>1.02473187415576</v>
       </c>
       <c r="N24">
-        <v>1.009067292501504</v>
+        <v>1.000657499226488</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010000142510728</v>
+        <v>0.9688813195309666</v>
       </c>
       <c r="D25">
-        <v>1.040039079932728</v>
+        <v>1.030269851390945</v>
       </c>
       <c r="E25">
-        <v>1.012396886501438</v>
+        <v>0.9801129296000795</v>
       </c>
       <c r="F25">
-        <v>1.04155023435521</v>
+        <v>1.018685355251108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035017782516342</v>
+        <v>1.052527541724755</v>
       </c>
       <c r="J25">
-        <v>1.015752874638931</v>
+        <v>0.9945033341715844</v>
       </c>
       <c r="K25">
-        <v>1.04307834631716</v>
+        <v>1.042415761088626</v>
       </c>
       <c r="L25">
-        <v>1.015524828371555</v>
+        <v>0.9930280166208001</v>
       </c>
       <c r="M25">
-        <v>1.044584801269465</v>
+        <v>1.031000368135844</v>
       </c>
       <c r="N25">
-        <v>1.009387736660142</v>
+        <v>1.002207141284871</v>
       </c>
     </row>
   </sheetData>
